--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_SwapsFromBasis.xlsx
@@ -17,9 +17,6 @@
     <sheet name="6M (2)" sheetId="22" r:id="rId8"/>
     <sheet name="1Y (2)" sheetId="23" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
@@ -58,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="87">
   <si>
     <t>Currency</t>
   </si>
@@ -317,6 +314,9 @@
   <si>
     <t>Discounting2</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +330,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -832,22 +832,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1142,7 +1126,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="13" customWidth="1"/>
@@ -1153,13 +1137,13 @@
     <col min="7" max="16384" width="8" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="61" t="s">
         <v>47</v>
@@ -1168,14 +1152,14 @@
       <c r="D2" s="62"/>
       <c r="E2" s="63"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="23"/>
       <c r="C4" s="33" t="s">
@@ -1184,7 +1168,7 @@
       <c r="D4" s="34"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="23"/>
       <c r="C5" s="33" t="s">
@@ -1195,7 +1179,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="23"/>
       <c r="C6" s="33" t="s">
@@ -1206,7 +1190,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="23"/>
       <c r="C7" s="33" t="s">
@@ -1217,19 +1201,18 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="23"/>
       <c r="C8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="35" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="23"/>
       <c r="C9" s="33" t="s">
@@ -1240,15 +1223,15 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>59</v>
       </c>
@@ -1259,13 +1242,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="29"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
       <c r="C14" s="37" t="s">
         <v>0</v>
@@ -1278,7 +1261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="37" t="s">
         <v>63</v>
@@ -1288,7 +1271,7 @@
       </c>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="29"/>
       <c r="C16" s="37" t="s">
         <v>64</v>
@@ -1298,7 +1281,7 @@
       </c>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="2:5" ht="12.75">
+    <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
       <c r="C17" s="37" t="s">
         <v>65</v>
@@ -1308,7 +1291,7 @@
       </c>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="2:5" ht="12.75">
+    <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
       <c r="C18" s="37" t="s">
         <v>1</v>
@@ -1318,7 +1301,7 @@
       </c>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="2:5" ht="12.75">
+    <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="29"/>
       <c r="C19" s="37" t="s">
         <v>53</v>
@@ -1328,7 +1311,7 @@
       </c>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="2:5" ht="12.75">
+    <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="29"/>
       <c r="C20" s="37" t="s">
         <v>84</v>
@@ -1339,7 +1322,7 @@
       </c>
       <c r="E20" s="30"/>
     </row>
-    <row r="21" spans="2:5" ht="12.75">
+    <row r="21" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="29"/>
       <c r="C21" s="37" t="s">
         <v>85</v>
@@ -1350,7 +1333,7 @@
       </c>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="2:5" ht="13.5" thickBot="1">
+    <row r="22" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -1391,7 +1374,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -1414,7 +1397,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1430,7 +1413,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1454,7 +1437,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>60</v>
@@ -1481,17 +1464,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC1MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1516,7 +1499,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1532,7 +1515,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>61</v>
@@ -1580,7 +1563,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B12" si="4">B6</f>
@@ -1629,7 +1612,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1678,7 +1661,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1727,7 +1710,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1785,7 +1768,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1843,7 +1826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1901,7 +1884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" ref="B13:B42" si="7">B12</f>
@@ -1959,7 +1942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2017,7 +2000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2069,7 +2052,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2118,7 +2101,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2167,7 +2150,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2216,7 +2199,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2265,7 +2248,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2314,7 +2297,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2363,7 +2346,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2412,7 +2395,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2461,7 +2444,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2510,7 +2493,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2559,7 +2542,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2608,7 +2591,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2657,7 +2640,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2706,7 +2689,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2755,7 +2738,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2804,7 +2787,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2853,7 +2836,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2902,7 +2885,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2951,7 +2934,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3000,7 +2983,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3049,7 +3032,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3098,7 +3081,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3147,7 +3130,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3196,7 +3179,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3245,7 +3228,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3294,7 +3277,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3343,7 +3326,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3392,7 +3375,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3430,7 +3413,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -3453,7 +3436,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -3469,7 +3452,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3493,7 +3476,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>60</v>
@@ -3520,17 +3503,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC3MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3555,7 +3538,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3571,7 +3554,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>61</v>
@@ -3619,7 +3602,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f>B6</f>
@@ -3668,7 +3651,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f>B7</f>
@@ -3717,7 +3700,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f>B8</f>
@@ -3766,7 +3749,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f>B9</f>
@@ -3824,7 +3807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f>B10</f>
@@ -3882,7 +3865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" ref="B12:B42" si="5">B11</f>
@@ -3940,7 +3923,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3998,7 +3981,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4056,7 +4039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4108,7 +4091,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4157,7 +4140,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4206,7 +4189,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4255,7 +4238,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4304,7 +4287,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4353,7 +4336,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4402,7 +4385,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4451,7 +4434,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4500,7 +4483,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4549,7 +4532,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4598,7 +4581,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4647,7 +4630,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4696,7 +4679,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4745,7 +4728,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4794,7 +4777,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4843,7 +4826,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4892,7 +4875,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4941,7 +4924,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4990,7 +4973,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5039,7 +5022,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5088,7 +5071,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5137,7 +5120,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5186,7 +5169,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5235,7 +5218,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5284,7 +5267,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5333,7 +5316,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5382,7 +5365,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5431,7 +5414,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -5469,7 +5452,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -5492,7 +5475,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5508,7 +5491,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5532,7 +5515,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>60</v>
@@ -5559,17 +5542,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC6MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5594,7 +5577,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5610,7 +5593,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>61</v>
@@ -5658,7 +5641,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B13" si="4">B6</f>
@@ -5707,7 +5690,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5756,7 +5739,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5805,7 +5788,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5863,7 +5846,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5921,7 +5904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5979,7 +5962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6037,7 +6020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" ref="B14:B42" si="9">B13</f>
@@ -6095,7 +6078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6147,7 +6130,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6196,7 +6179,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6245,7 +6228,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6294,7 +6277,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6343,7 +6326,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6392,7 +6375,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6441,7 +6424,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6490,7 +6473,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6539,7 +6522,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6588,7 +6571,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6637,7 +6620,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6686,7 +6669,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6735,7 +6718,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6784,7 +6767,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6833,7 +6816,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6882,7 +6865,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6931,7 +6914,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6980,7 +6963,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7029,7 +7012,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7078,7 +7061,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7127,7 +7110,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7176,7 +7159,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7225,7 +7208,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7274,7 +7257,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7323,7 +7306,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7372,7 +7355,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7421,7 +7404,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7470,7 +7453,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7507,7 +7490,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -7530,7 +7513,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7546,7 +7529,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7570,7 +7553,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>60</v>
@@ -7597,17 +7580,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC1YRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7632,7 +7615,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7648,7 +7631,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>61</v>
@@ -7696,7 +7679,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B13" si="2">B6</f>
@@ -7745,7 +7728,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7794,7 +7777,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7843,7 +7826,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7901,7 +7884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7959,7 +7942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8017,7 +8000,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8075,7 +8058,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" ref="B14:B42" si="7">B13</f>
@@ -8133,7 +8116,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8185,7 +8168,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8234,7 +8217,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8283,7 +8266,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8332,7 +8315,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8381,7 +8364,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8430,7 +8413,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8479,7 +8462,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8528,7 +8511,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8577,7 +8560,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8626,7 +8609,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8675,7 +8658,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8724,7 +8707,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8773,7 +8756,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8822,7 +8805,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8871,7 +8854,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8920,7 +8903,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8969,7 +8952,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9018,7 +9001,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9067,7 +9050,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9116,7 +9099,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9165,7 +9148,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9214,7 +9197,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9263,7 +9246,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9312,7 +9295,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9361,7 +9344,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9410,7 +9393,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9459,7 +9442,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9508,7 +9491,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -9546,7 +9529,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -9569,7 +9552,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -9585,7 +9568,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9609,7 +9592,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>60</v>
@@ -9636,17 +9619,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC1M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9671,7 +9654,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9687,7 +9670,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>61</v>
@@ -9735,7 +9718,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
@@ -9784,7 +9767,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -9833,7 +9816,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -9882,7 +9865,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -9940,7 +9923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -9998,7 +9981,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10056,7 +10039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10114,7 +10097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10172,7 +10155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10224,7 +10207,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10273,7 +10256,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10322,7 +10305,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10371,7 +10354,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10420,7 +10403,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10469,7 +10452,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10518,7 +10501,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10567,7 +10550,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10616,7 +10599,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10665,7 +10648,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10714,7 +10697,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10763,7 +10746,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10812,7 +10795,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10861,7 +10844,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10910,7 +10893,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10959,7 +10942,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11008,7 +10991,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11057,7 +11040,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11106,7 +11089,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11155,7 +11138,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11204,7 +11187,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11253,7 +11236,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11302,7 +11285,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11351,7 +11334,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11400,7 +11383,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11449,7 +11432,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11498,7 +11481,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11547,7 +11530,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -11585,7 +11568,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -11608,7 +11591,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -11624,7 +11607,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -11648,7 +11631,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>60</v>
@@ -11675,17 +11658,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC3M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11710,7 +11693,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11726,7 +11709,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>61</v>
@@ -11774,7 +11757,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
@@ -11823,7 +11806,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11872,7 +11855,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11921,7 +11904,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11979,7 +11962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12037,7 +12020,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12095,7 +12078,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12153,7 +12136,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12211,7 +12194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12263,7 +12246,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12312,7 +12295,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12361,7 +12344,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12410,7 +12393,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12459,7 +12442,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12508,7 +12491,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12557,7 +12540,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12606,7 +12589,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12655,7 +12638,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12704,7 +12687,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12753,7 +12736,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12802,7 +12785,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12851,7 +12834,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12900,7 +12883,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12949,7 +12932,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="4"/>
@@ -12998,7 +12981,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13047,7 +13030,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13096,7 +13079,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13145,7 +13128,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13194,7 +13177,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13243,7 +13226,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13292,7 +13275,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13341,7 +13324,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13390,7 +13373,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13439,7 +13422,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13488,7 +13471,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13537,7 +13520,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13586,7 +13569,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -13624,7 +13607,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -13647,7 +13630,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -13663,7 +13646,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13687,7 +13670,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>60</v>
@@ -13714,17 +13697,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC6M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13749,7 +13732,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13765,7 +13748,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>61</v>
@@ -13813,7 +13796,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
@@ -13862,7 +13845,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13911,7 +13894,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13960,7 +13943,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14018,7 +14001,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14076,7 +14059,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14134,7 +14117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14192,7 +14175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14250,7 +14233,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14302,7 +14285,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14351,7 +14334,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14400,7 +14383,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14449,7 +14432,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14498,7 +14481,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14547,7 +14530,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14596,7 +14579,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14645,7 +14628,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14694,7 +14677,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14743,7 +14726,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14792,7 +14775,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14841,7 +14824,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14890,7 +14873,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14939,7 +14922,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14988,7 +14971,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15037,7 +15020,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15086,7 +15069,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15135,7 +15118,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15184,7 +15167,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15233,7 +15216,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15282,7 +15265,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15331,7 +15314,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15380,7 +15363,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15429,7 +15412,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15478,7 +15461,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15527,7 +15510,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15576,7 +15559,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15625,7 +15608,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -15662,7 +15645,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -15685,7 +15668,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -15701,7 +15684,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -15725,7 +15708,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>60</v>
@@ -15752,17 +15735,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC1Y-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -15787,7 +15770,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15803,7 +15786,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>61</v>
@@ -15851,7 +15834,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
@@ -15900,7 +15883,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15949,7 +15932,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15998,7 +15981,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16056,7 +16039,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16114,7 +16097,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16172,7 +16155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16230,7 +16213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16288,7 +16271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16340,7 +16323,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16389,7 +16372,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16438,7 +16421,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16487,7 +16470,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16536,7 +16519,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16585,7 +16568,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16634,7 +16617,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16683,7 +16666,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16732,7 +16715,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16781,7 +16764,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16830,7 +16813,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16879,7 +16862,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16928,7 +16911,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16977,7 +16960,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17026,7 +17009,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17075,7 +17058,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17124,7 +17107,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17173,7 +17156,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17222,7 +17205,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17271,7 +17254,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17320,7 +17303,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17369,7 +17352,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17418,7 +17401,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17467,7 +17450,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17516,7 +17499,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17565,7 +17548,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17614,7 +17597,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17663,7 +17646,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_SwapsFromBasis.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="86">
   <si>
     <t>Currency</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>Discounting2</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1204,9 @@
       <c r="C8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>86</v>
+      <c r="D8" s="35" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="25"/>
     </row>
@@ -1465,12 +1463,12 @@
         <v>EUR_YC1MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -3504,12 +3502,12 @@
         <v>EUR_YC3MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -5543,12 +5541,12 @@
         <v>EUR_YC6MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -7581,12 +7579,12 @@
         <v>EUR_YC1YRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -9620,12 +9618,12 @@
         <v>EUR_YC1M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -11659,12 +11657,12 @@
         <v>EUR_YC3M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -13698,12 +13696,12 @@
         <v>EUR_YC6M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -15736,12 +15734,12 @@
         <v>EUR_YC1Y-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
